--- a/simulation/robotstudio_sim/scripts/fitting_output/slope_blend/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/slope_blend/comparison.xlsx
@@ -434,10 +434,10 @@
         <v>1.591346663439895</v>
       </c>
       <c r="C6">
-        <v>2.99695838713741</v>
+        <v>2.94544313161008</v>
       </c>
       <c r="D6">
-        <v>4.05901318022443</v>
+        <v>3.909633920238936</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.479365141602073</v>
+        <v>1.471213337664393</v>
       </c>
       <c r="C7">
-        <v>2.83126273353799</v>
+        <v>2.432695658058871</v>
       </c>
       <c r="D7">
-        <v>3.996226663333001</v>
+        <v>3.881532409081468</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.479978992100685</v>
+        <v>1.465888050358416</v>
       </c>
       <c r="C8">
-        <v>2.487376362720908</v>
+        <v>2.550775625478633</v>
       </c>
       <c r="D8">
-        <v>3.817577586287569</v>
+        <v>3.795772540942481</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -489,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.516270285349551</v>
+        <v>1.419032370319255</v>
       </c>
       <c r="C11">
-        <v>3.105483705705272</v>
+        <v>3.049139362495201</v>
       </c>
       <c r="D11">
-        <v>4.182743043164786</v>
+        <v>4.021753589220015</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.516270285349551</v>
+        <v>1.391076621779258</v>
       </c>
       <c r="C12">
-        <v>2.93143315998626</v>
+        <v>2.52006947182577</v>
       </c>
       <c r="D12">
-        <v>4.117923294113051</v>
+        <v>3.990529842214033</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -517,13 +517,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.516270285349551</v>
+        <v>1.391763295291559</v>
       </c>
       <c r="C13">
-        <v>2.561616307581453</v>
+        <v>2.626692486290624</v>
       </c>
       <c r="D13">
-        <v>3.916812891924476</v>
+        <v>3.894505530931276</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -547,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>35.984</v>
+        <v>36.39599999999999</v>
       </c>
       <c r="C16">
-        <v>5.876</v>
+        <v>6.614999999999999</v>
       </c>
       <c r="D16">
-        <v>4.556</v>
+        <v>5.348</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>34.224</v>
+        <v>34.364</v>
       </c>
       <c r="C17">
-        <v>3.312</v>
+        <v>3.452</v>
       </c>
       <c r="D17">
-        <v>1.74</v>
+        <v>1.915999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -575,13 +575,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>34.032</v>
+        <v>34.172</v>
       </c>
       <c r="C18">
-        <v>3.052</v>
+        <v>3.196</v>
       </c>
       <c r="D18">
-        <v>1.356</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>138.2534614316876</v>
+        <v>51.70880385261417</v>
       </c>
       <c r="C21">
-        <v>505.2281098514183</v>
+        <v>673.3231419635919</v>
       </c>
       <c r="D21">
-        <v>1455.356206008163</v>
+        <v>1149.462763437584</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -619,13 +619,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>138.2534614319332</v>
+        <v>54.23601469216207</v>
       </c>
       <c r="C22">
-        <v>505.0206523949179</v>
+        <v>504.6903165728902</v>
       </c>
       <c r="D22">
-        <v>1457.537122392374</v>
+        <v>1448.968491876249</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -633,13 +633,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>138.2534614319332</v>
+        <v>51.73161816329271</v>
       </c>
       <c r="C23">
-        <v>515.7703534076876</v>
+        <v>515.5499316457835</v>
       </c>
       <c r="D23">
-        <v>1498.972297532254</v>
+        <v>1508.713249472227</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -663,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>5.590417134019883</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3.937196200454918</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3.483181377149684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -677,13 +677,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>6.942932201836141</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>9.543179790955152</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4.662942621757979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -691,13 +691,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>6.942932201836141</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>9.54317979095727</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>4.662942621759014</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/robotstudio_sim/scripts/fitting_output/slope_blend/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/slope_blend/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>max_error1</t>
   </si>
@@ -40,6 +40,12 @@
     <t>max_error2</t>
   </si>
   <si>
+    <t>max_error1_idx</t>
+  </si>
+  <si>
+    <t>max_error2_idx</t>
+  </si>
+  <si>
     <t>total_time</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>min_speed</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing</t>
+  </si>
+  <si>
+    <t>jacobian_min_sing_idx</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:D28"/>
+  <dimension ref="A4:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,13 +559,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>36.39599999999999</v>
+        <v>2699</v>
       </c>
       <c r="C16">
-        <v>6.614999999999999</v>
+        <v>199</v>
       </c>
       <c r="D16">
-        <v>5.348</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -561,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>34.364</v>
+        <v>5430</v>
       </c>
       <c r="C17">
-        <v>3.452</v>
+        <v>198</v>
       </c>
       <c r="D17">
-        <v>1.915999999999999</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -575,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>34.172</v>
+        <v>5447</v>
       </c>
       <c r="C18">
-        <v>3.196</v>
+        <v>202</v>
       </c>
       <c r="D18">
-        <v>1.46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -605,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>51.70880385261417</v>
+        <v>4145</v>
       </c>
       <c r="C21">
-        <v>673.3231419635919</v>
+        <v>199</v>
       </c>
       <c r="D21">
-        <v>1149.462763437584</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -619,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>54.23601469216207</v>
+        <v>5575</v>
       </c>
       <c r="C22">
-        <v>504.6903165728902</v>
+        <v>198</v>
       </c>
       <c r="D22">
-        <v>1448.968491876249</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -633,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>51.73161816329271</v>
+        <v>5569</v>
       </c>
       <c r="C23">
-        <v>515.5499316457835</v>
+        <v>202</v>
       </c>
       <c r="D23">
-        <v>1508.713249472227</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -663,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>36.39599999999999</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>6.614999999999999</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5.348</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -677,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>34.984</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4.188</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2.868</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -691,13 +703,245 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>34.984</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3.883999999999999</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2.332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>51.70880385261417</v>
+      </c>
+      <c r="C31">
+        <v>673.3231419635919</v>
+      </c>
+      <c r="D31">
+        <v>1436.828454297363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>54.23601469206573</v>
+      </c>
+      <c r="C32">
+        <v>504.6903165728902</v>
+      </c>
+      <c r="D32">
+        <v>1448.968491875927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>51.73161816320081</v>
+      </c>
+      <c r="C33">
+        <v>806.447812352387</v>
+      </c>
+      <c r="D33">
+        <v>1508.713249472227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.9054188592841207</v>
+      </c>
+      <c r="C36">
+        <v>1.207225145711446</v>
+      </c>
+      <c r="D36">
+        <v>0.9054188592837187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0.9054188592825124</v>
+      </c>
+      <c r="C37">
+        <v>0.9054188592837187</v>
+      </c>
+      <c r="D37">
+        <v>0.9054188592835176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0.9054188592825124</v>
+      </c>
+      <c r="C38">
+        <v>0.7243350874270392</v>
+      </c>
+      <c r="D38">
+        <v>0.9054188592837187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="C41">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="D41">
+        <v>0.3878410284861738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="C42">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="D42">
+        <v>0.3878410284861738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="C43">
+        <v>0.3878410284861738</v>
+      </c>
+      <c r="D43">
+        <v>0.3878410284861738</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/robotstudio_sim/scripts/fitting_output/slope_blend/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output/slope_blend/comparison.xlsx
@@ -443,13 +443,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.591346663439895</v>
+        <v>1.56580818258071</v>
       </c>
       <c r="C6">
-        <v>2.94544313161008</v>
+        <v>2.946308710674287</v>
       </c>
       <c r="D6">
-        <v>3.909633920238936</v>
+        <v>3.908199741190412</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.471213337664393</v>
+        <v>1.469243088952082</v>
       </c>
       <c r="C7">
-        <v>2.432695658058871</v>
+        <v>2.432602380622026</v>
       </c>
       <c r="D7">
-        <v>3.881532409081468</v>
+        <v>3.882094642751598</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -471,13 +471,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.465888050358416</v>
+        <v>1.46271849646247</v>
       </c>
       <c r="C8">
-        <v>2.550775625478633</v>
+        <v>2.54512713726522</v>
       </c>
       <c r="D8">
-        <v>3.795772540942481</v>
+        <v>3.790916094986849</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.419032370319255</v>
+        <v>1.415941470504994</v>
       </c>
       <c r="C11">
-        <v>3.049139362495201</v>
+        <v>3.049282078927635</v>
       </c>
       <c r="D11">
-        <v>4.021753589220015</v>
+        <v>4.019536320654797</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -515,13 +515,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.391076621779258</v>
+        <v>1.389824083966508</v>
       </c>
       <c r="C12">
-        <v>2.52006947182577</v>
+        <v>2.519184570815392</v>
       </c>
       <c r="D12">
-        <v>3.990529842214033</v>
+        <v>3.989633954809834</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -529,13 +529,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>1.391763295291559</v>
+        <v>1.389262327988554</v>
       </c>
       <c r="C13">
-        <v>2.626692486290624</v>
+        <v>2.619822192019938</v>
       </c>
       <c r="D13">
-        <v>3.894505530931276</v>
+        <v>3.887824983370449</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>2699</v>
+        <v>2686</v>
       </c>
       <c r="C16">
         <v>199</v>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>5430</v>
+        <v>5425</v>
       </c>
       <c r="C17">
         <v>198</v>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>5447</v>
+        <v>5479</v>
       </c>
       <c r="C18">
         <v>202</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="C21">
         <v>199</v>
@@ -631,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>5575</v>
+        <v>5570</v>
       </c>
       <c r="C22">
         <v>198</v>
       </c>
       <c r="D22">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>5569</v>
+        <v>5580</v>
       </c>
       <c r="C23">
         <v>202</v>
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>36.39599999999999</v>
+        <v>36.42</v>
       </c>
       <c r="C26">
-        <v>6.614999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="D26">
-        <v>5.348</v>
+        <v>5.339999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -695,7 +695,7 @@
         <v>4.188</v>
       </c>
       <c r="D27">
-        <v>2.868</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -703,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>34.984</v>
+        <v>34.98399999999999</v>
       </c>
       <c r="C28">
-        <v>3.883999999999999</v>
+        <v>3.888000000000001</v>
       </c>
       <c r="D28">
-        <v>2.332</v>
+        <v>2.316</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -733,13 +733,13 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>51.70880385261417</v>
+        <v>51.59703588696162</v>
       </c>
       <c r="C31">
-        <v>673.3231419635919</v>
+        <v>404.0380558021848</v>
       </c>
       <c r="D31">
-        <v>1436.828454297363</v>
+        <v>1437.565764229964</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>54.23601469206573</v>
+        <v>54.21658942779009</v>
       </c>
       <c r="C32">
-        <v>504.6903165728902</v>
+        <v>997.5326559680468</v>
       </c>
       <c r="D32">
-        <v>1448.968491875927</v>
+        <v>1448.808742983977</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -761,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>51.73161816320081</v>
+        <v>51.67171897512418</v>
       </c>
       <c r="C33">
-        <v>806.447812352387</v>
+        <v>1008.846661609306</v>
       </c>
       <c r="D33">
-        <v>1508.713249472227</v>
+        <v>1535.865356249009</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -791,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>0.9054188592841207</v>
+        <v>0.9054188592825124</v>
       </c>
       <c r="C36">
-        <v>1.207225145711446</v>
+        <v>0.7243350874267819</v>
       </c>
       <c r="D36">
         <v>0.9054188592837187</v>
@@ -819,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>0.9054188592825124</v>
+        <v>0.9054188592841207</v>
       </c>
       <c r="C38">
-        <v>0.7243350874270392</v>
+        <v>0.9054188592833166</v>
       </c>
       <c r="D38">
         <v>0.9054188592837187</v>
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>44</v>
